--- a/xlsx/生物柴油_intext.xlsx
+++ b/xlsx/生物柴油_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="541">
   <si>
     <t>生物柴油</t>
   </si>
@@ -29,13 +29,13 @@
     <t>en-Types of plant oils</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_生物柴油</t>
+    <t>政策_政策_混合动力车辆_生物柴油</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%84%E6%AC%96%E6%B2%B9</t>
   </si>
   <si>
-    <t>橄欖油</t>
+    <t>橄榄油</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A4%8D%E7%89%A9%E6%B2%B9</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B8%E6%BC%AC</t>
   </si>
   <si>
-    <t>浸漬</t>
+    <t>浸渍</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_macerated_oils</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9E%E9%8D%8B%E6%B2%B9</t>
   </si>
   <si>
-    <t>回鍋油</t>
+    <t>回锅油</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%84%82%E8%82%AA%E9%85%B8</t>
@@ -107,19 +107,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%BD%E5%92%8C%E8%84%82%E8%82%AA</t>
   </si>
   <si>
-    <t>飽和脂肪</t>
+    <t>饱和脂肪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E5%85%83%E4%B8%8D%E9%A3%BD%E5%92%8C%E8%84%82%E8%82%AA</t>
   </si>
   <si>
-    <t>單元不飽和脂肪</t>
+    <t>单元不饱和脂肪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%85%83%E4%B8%8D%E9%A3%BD%E5%92%8C%E8%84%82%E8%82%AA</t>
   </si>
   <si>
-    <t>多元不飽和脂肪</t>
+    <t>多元不饱和脂肪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%BC%8F%E8%84%82%E8%82%AA</t>
@@ -143,13 +143,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E4%BF%9D</t>
   </si>
   <si>
-    <t>環保</t>
+    <t>环保</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E8%B3%AA%E7%87%83%E6%96%99</t>
   </si>
   <si>
-    <t>生質燃料</t>
+    <t>生质燃料</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%B4%E6%B2%B9</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%85%B8%E9%B9%BC%E8%90%83%E5%8F%96</t>
   </si>
   <si>
-    <t>酸鹼萃取</t>
+    <t>酸碱萃取</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E6%B3%A2</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A7%E5%8C%96%E9%8D%B6</t>
   </si>
   <si>
-    <t>氧化鍶</t>
+    <t>氧化锶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%98%E6%B2%B9</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8F%B0%E5%B9%A3</t>
   </si>
   <si>
-    <t>新台幣</t>
+    <t>新台币</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B2%81%E9%81%93%E5%A4%AB%C2%B7%E7%8B%84%E5%A1%9E%E5%B0%94</t>
@@ -353,13 +353,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>馬來西亞</t>
+    <t>马来西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%95%E6%AB%9A%E6%B2%B9</t>
   </si>
   <si>
-    <t>棕櫚油</t>
+    <t>棕榈油</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%B4%E6%B2%B9%E5%8F%91%E5%8A%A8%E6%9C%BA</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%BB%E9%A1%9E%E7%94%9F%E8%B3%AA%E7%87%83%E6%96%99</t>
   </si>
   <si>
-    <t>藻類生質燃料</t>
+    <t>藻类生质燃料</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8D%87</t>
@@ -473,13 +473,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E9%83%BD%E5%B8%82%E7%87%9F%E5%B7%B4%E5%A3%AB</t>
   </si>
   <si>
-    <t>京都市營巴士</t>
+    <t>京都市营巴士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%82%B8%E5%A4%A9%E5%A9%A6%E7%BE%85</t>
   </si>
   <si>
-    <t>炸天婦羅</t>
+    <t>炸天妇罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%88%A9%E5%B0%94</t>
@@ -527,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A2%B3%E6%B0%AB%E5%8C%96%E5%90%88%E7%89%A9</t>
   </si>
   <si>
-    <t>碳氫化合物</t>
+    <t>碳氢化合物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E6%B0%A7%E5%8C%96%E7%A2%B3</t>
@@ -551,7 +551,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%85%B8%E5%83%B9</t>
   </si>
   <si>
-    <t>酸價</t>
+    <t>酸价</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BF%E4%BB%A3%E8%83%BD%E6%BA%90</t>
@@ -569,7 +569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B2%E9%BB%9E</t>
   </si>
   <si>
-    <t>雲點</t>
+    <t>云点</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%AC%E5%A4%A9</t>
@@ -581,7 +581,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%BB%E5%8A%A0%E5%8A%91</t>
   </si>
   <si>
-    <t>添加劑</t>
+    <t>添加剂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E7%94%9F%E7%89%A9</t>
@@ -605,25 +605,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%93%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>大韓民國</t>
+    <t>大韩民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E7%A7%91%E6%8A%80%E5%B7%A5%E6%A5%AD%E5%9C%92</t>
   </si>
   <si>
-    <t>生物科技工業園</t>
+    <t>生物科技工业园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E8%A6%8B%E5%85%89</t>
   </si>
   <si>
-    <t>可見光</t>
+    <t>可见光</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BF%81%E9%BB%9E_(%E6%BA%AB%E5%BA%A6)</t>
   </si>
   <si>
-    <t>濁點 (溫度)</t>
+    <t>浊点 (温度)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E8%84%82</t>
@@ -635,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E7%B6%93%E6%BF%9F%E9%83%A8</t>
   </si>
   <si>
-    <t>中華民國經濟部</t>
+    <t>中华民国经济部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E7%89%A9%E4%B8%8E%E7%87%83%E6%96%99%E4%B9%8B%E4%BA%89</t>
@@ -653,7 +653,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%97%B2%E7%98%8B%E6%A8%B9</t>
   </si>
   <si>
-    <t>痲瘋樹</t>
+    <t>痲疯树</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%A3%E6%9C%A8%E7%A7%91</t>
@@ -665,13 +665,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E6%BA%9D%E6%B2%B9</t>
   </si>
   <si>
-    <t>地溝油</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%BB%E9%A1%9E</t>
   </si>
   <si>
-    <t>藻類</t>
+    <t>藻类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%97%BB</t>
@@ -689,7 +686,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E8%B3%AA%E8%83%BD</t>
   </si>
   <si>
-    <t>生物質能</t>
+    <t>生物质能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E5%86%8D%E7%94%9F%E8%83%BD%E6%BA%90</t>
@@ -707,7 +704,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E4%BD%9C%E7%89%A9</t>
   </si>
   <si>
-    <t>經濟作物</t>
+    <t>经济作物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%83%E6%96%99%E4%B9%99%E9%86%87</t>
@@ -749,7 +746,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%80%9A%E8%A8%8A%E7%A4%BE</t>
   </si>
   <si>
-    <t>中央通訊社</t>
+    <t>中央通讯社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -761,7 +758,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%A0%B1</t>
   </si>
   <si>
-    <t>聯合報</t>
+    <t>联合报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/DOI</t>
@@ -773,7 +770,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E7%A7%91%E6%8A%80%E9%83%A8</t>
   </si>
   <si>
-    <t>中華民國科技部</t>
+    <t>中华民国科技部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E8%83%BD%E6%BA%90</t>
@@ -803,7 +800,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E6%B0%A3%E9%AB%94</t>
   </si>
   <si>
-    <t>生物氣體</t>
+    <t>生物气体</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Biogasoline</t>
@@ -815,7 +812,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BA%96%E7%B6%AD%E7%B4%A0%E4%B9%99%E9%86%87</t>
   </si>
   <si>
-    <t>纖維素乙醇</t>
+    <t>纤维素乙醇</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Common_ethanol_fuel_mixtures</t>
@@ -851,7 +848,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E6%B2%B9%E8%84%82%E8%86%8F</t>
   </si>
   <si>
-    <t>黃油脂膏</t>
+    <t>黄油脂膏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%A4%E7%9C%BC%E8%93%9D</t>
@@ -947,9 +944,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%A1%95</t>
   </si>
   <si>
-    <t>烏桕</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%AE%E8%90%8D</t>
   </si>
   <si>
@@ -1079,19 +1073,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A3%93%E7%B8%AE%E5%A4%A9%E7%84%B6%E6%B0%A3</t>
   </si>
   <si>
-    <t>壓縮天然氣</t>
+    <t>压缩天然气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%AB</t>
   </si>
   <si>
-    <t>氫</t>
+    <t>氢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E4%B9%99%E5%9F%BA%E9%89%9B</t>
   </si>
   <si>
-    <t>四乙基鉛</t>
+    <t>四乙基铅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%81%E5%9F%BA%E6%A9%A1%E8%83%B6</t>
@@ -1103,7 +1097,7 @@
     <t>https://zh.wikipedia.org/wiki/2,6-%E4%BA%8C%E5%8F%94%E4%B8%81%E5%9F%BA%E5%B0%8D%E7%94%B2%E9%85%9A</t>
   </si>
   <si>
-    <t>2,6-二叔丁基對甲酚</t>
+    <t>2,6-二叔丁基对甲酚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1,2-%E4%BA%8C%E6%BA%B4%E4%B9%99%E7%83%B7</t>
@@ -1157,13 +1151,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A2%E6%A3%84%E7%89%A9%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>廢棄物管理</t>
+    <t>废弃物管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A2%E7%89%A9%E7%A8%AE%E9%A1%9E%E8%A1%A8</t>
   </si>
   <si>
-    <t>廢物種類表</t>
+    <t>废物种类表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Agricultural_wastewater_treatment</t>
@@ -1175,7 +1169,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%B8%E5%BB%A2%E6%96%99</t>
   </si>
   <si>
-    <t>化學廢料</t>
+    <t>化学废料</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Construction_waste</t>
@@ -1205,7 +1199,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%9A%E9%A4%98</t>
   </si>
   <si>
-    <t>廚餘</t>
+    <t>厨馀</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Green_waste</t>
@@ -1223,19 +1217,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A2%E7%86%B1</t>
   </si>
   <si>
-    <t>廢熱</t>
+    <t>废热</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E5%BB%A2%E6%96%99</t>
   </si>
   <si>
-    <t>工業廢料</t>
+    <t>工业废料</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8B%E6%A5%AD%E5%BB%A2%E6%A3%84%E7%89%A9</t>
   </si>
   <si>
-    <t>事業廢棄物</t>
+    <t>事业废弃物</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Litter</t>
@@ -1247,13 +1241,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B4%8B%E5%BB%A2%E6%A3%84%E7%89%A9</t>
   </si>
   <si>
-    <t>海洋廢棄物</t>
+    <t>海洋废弃物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E7%99%82%E5%BB%A2%E7%89%A9</t>
   </si>
   <si>
-    <t>醫療廢物</t>
+    <t>医疗废物</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Tailings</t>
@@ -1265,7 +1259,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E5%B8%82%E5%9B%BA%E9%AB%94%E5%BB%A2%E7%89%A9</t>
   </si>
   <si>
-    <t>都市固體廢物</t>
+    <t>都市固体废物</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Post-consumer_waste</t>
@@ -1301,13 +1295,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E5%BB%A2%E6%B0%B4</t>
   </si>
   <si>
-    <t>工業廢水</t>
+    <t>工业废水</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%AD%E6%B0%A7%E6%B6%88%E5%8C%96</t>
   </si>
   <si>
-    <t>厭氧消化</t>
+    <t>厌氧消化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E9%99%8D%E8%A7%A3</t>
@@ -1319,7 +1313,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%9A%AF%E8%9A%93%E7%B3%9E</t>
   </si>
   <si>
-    <t>蚯蚓糞</t>
+    <t>蚯蚓粪</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Fly-tipping</t>
@@ -1361,7 +1355,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%BA%90%E5%9B%9E%E6%94%B6</t>
   </si>
   <si>
-    <t>資源回收</t>
+    <t>资源回收</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Resource_recovery</t>
@@ -1373,7 +1367,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%A1%E6%B0%B4%E8%99%95%E7%90%86</t>
   </si>
   <si>
-    <t>污水處理</t>
+    <t>污水处理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9E%83%E5%9C%BE%E6%94%B6%E9%9B%86</t>
@@ -1391,13 +1385,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9E%83%E5%9C%BE%E5%88%86%E9%A1%9E</t>
   </si>
   <si>
-    <t>垃圾分類</t>
+    <t>垃圾分类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A4%BF%E6%B0%B4%E6%B2%B9</t>
   </si>
   <si>
-    <t>餿水油</t>
+    <t>馊水油</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Waste_treatment</t>
@@ -1487,13 +1481,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A1%9E%E7%88%BE%E5%85%AC%E7%B4%84</t>
   </si>
   <si>
-    <t>巴塞爾公約</t>
+    <t>巴塞尔公约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E8%81%AF%E7%9B%9F%E6%8C%87%E4%BB%A4</t>
   </si>
   <si>
-    <t>歐洲聯盟指令</t>
+    <t>欧洲联盟指令</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Battery_Directive</t>
@@ -1511,7 +1505,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%AE%B3%E6%80%A7%E7%89%A9%E8%B3%AA%E9%99%90%E5%88%B6%E6%8C%87%E4%BB%A4</t>
   </si>
   <si>
-    <t>危害性物質限制指令</t>
+    <t>危害性物质限制指令</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Waste_Framework_Directive</t>
@@ -1535,13 +1529,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A2%E9%9B%BB%E5%AD%90%E9%9B%BB%E6%A9%9F%E8%A8%AD%E5%82%99%E6%8C%87%E4%BB%A4</t>
   </si>
   <si>
-    <t>廢電子電機設備指令</t>
+    <t>废电子电机设备指令</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%B2%E6%AD%A2%E8%88%B9%E8%88%B6%E6%B1%99%E6%9F%93%E5%9C%8B%E9%9A%9B%E5%85%AC%E7%B4%84</t>
   </si>
   <si>
-    <t>防止船舶汙染國際公約</t>
+    <t>防止船舶污染国际公约</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Oslo_Dumping_Convention</t>
@@ -1559,7 +1553,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%87%E7%B4%9A%E5%86%8D%E9%80%A0</t>
   </si>
   <si>
-    <t>升級再造</t>
+    <t>升级再造</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Downcycling</t>
@@ -1601,7 +1595,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E4%BF%9D3R</t>
   </si>
   <si>
-    <t>環保3R</t>
+    <t>环保3R</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Waste_legislation</t>
@@ -1637,7 +1631,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -5175,7 +5169,7 @@
         <v>215</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>118</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5201,10 +5195,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>216</v>
+      </c>
+      <c r="F111" t="s">
         <v>217</v>
-      </c>
-      <c r="F111" t="s">
-        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>6</v>
@@ -5230,10 +5224,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>218</v>
+      </c>
+      <c r="F112" t="s">
         <v>219</v>
-      </c>
-      <c r="F112" t="s">
-        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>4</v>
@@ -5259,10 +5253,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>220</v>
+      </c>
+      <c r="F113" t="s">
         <v>221</v>
-      </c>
-      <c r="F113" t="s">
-        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5288,10 +5282,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>222</v>
+      </c>
+      <c r="F114" t="s">
         <v>223</v>
-      </c>
-      <c r="F114" t="s">
-        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5346,10 +5340,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>224</v>
+      </c>
+      <c r="F116" t="s">
         <v>225</v>
-      </c>
-      <c r="F116" t="s">
-        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>4</v>
@@ -5375,10 +5369,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>226</v>
+      </c>
+      <c r="F117" t="s">
         <v>227</v>
-      </c>
-      <c r="F117" t="s">
-        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5404,10 +5398,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>228</v>
+      </c>
+      <c r="F118" t="s">
         <v>229</v>
-      </c>
-      <c r="F118" t="s">
-        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -5433,10 +5427,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>230</v>
+      </c>
+      <c r="F119" t="s">
         <v>231</v>
-      </c>
-      <c r="F119" t="s">
-        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5462,10 +5456,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>232</v>
+      </c>
+      <c r="F120" t="s">
         <v>233</v>
-      </c>
-      <c r="F120" t="s">
-        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5491,10 +5485,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>234</v>
+      </c>
+      <c r="F121" t="s">
         <v>235</v>
-      </c>
-      <c r="F121" t="s">
-        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -5520,10 +5514,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>236</v>
+      </c>
+      <c r="F122" t="s">
         <v>237</v>
-      </c>
-      <c r="F122" t="s">
-        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>10</v>
@@ -5549,10 +5543,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>238</v>
+      </c>
+      <c r="F123" t="s">
         <v>239</v>
-      </c>
-      <c r="F123" t="s">
-        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -5578,10 +5572,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>240</v>
+      </c>
+      <c r="F124" t="s">
         <v>241</v>
-      </c>
-      <c r="F124" t="s">
-        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -5607,10 +5601,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>242</v>
+      </c>
+      <c r="F125" t="s">
         <v>243</v>
-      </c>
-      <c r="F125" t="s">
-        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5636,10 +5630,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>244</v>
+      </c>
+      <c r="F126" t="s">
         <v>245</v>
-      </c>
-      <c r="F126" t="s">
-        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -5665,10 +5659,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>246</v>
+      </c>
+      <c r="F127" t="s">
         <v>247</v>
-      </c>
-      <c r="F127" t="s">
-        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5694,10 +5688,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>248</v>
+      </c>
+      <c r="F128" t="s">
         <v>249</v>
-      </c>
-      <c r="F128" t="s">
-        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -5723,10 +5717,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>250</v>
+      </c>
+      <c r="F129" t="s">
         <v>251</v>
-      </c>
-      <c r="F129" t="s">
-        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5752,10 +5746,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>252</v>
+      </c>
+      <c r="F130" t="s">
         <v>253</v>
-      </c>
-      <c r="F130" t="s">
-        <v>254</v>
       </c>
       <c r="G130" t="n">
         <v>4</v>
@@ -5781,10 +5775,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>254</v>
+      </c>
+      <c r="F131" t="s">
         <v>255</v>
-      </c>
-      <c r="F131" t="s">
-        <v>256</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5810,10 +5804,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>256</v>
+      </c>
+      <c r="F132" t="s">
         <v>257</v>
-      </c>
-      <c r="F132" t="s">
-        <v>258</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5839,10 +5833,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>258</v>
+      </c>
+      <c r="F133" t="s">
         <v>259</v>
-      </c>
-      <c r="F133" t="s">
-        <v>260</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -5868,10 +5862,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>260</v>
+      </c>
+      <c r="F134" t="s">
         <v>261</v>
-      </c>
-      <c r="F134" t="s">
-        <v>262</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5897,10 +5891,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>262</v>
+      </c>
+      <c r="F135" t="s">
         <v>263</v>
-      </c>
-      <c r="F135" t="s">
-        <v>264</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5926,10 +5920,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>230</v>
+      </c>
+      <c r="F136" t="s">
         <v>231</v>
-      </c>
-      <c r="F136" t="s">
-        <v>232</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5955,10 +5949,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>264</v>
+      </c>
+      <c r="F137" t="s">
         <v>265</v>
-      </c>
-      <c r="F137" t="s">
-        <v>266</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -5984,10 +5978,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>266</v>
+      </c>
+      <c r="F138" t="s">
         <v>267</v>
-      </c>
-      <c r="F138" t="s">
-        <v>268</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6013,10 +6007,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>268</v>
+      </c>
+      <c r="F139" t="s">
         <v>269</v>
-      </c>
-      <c r="F139" t="s">
-        <v>270</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6042,10 +6036,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>270</v>
+      </c>
+      <c r="F140" t="s">
         <v>271</v>
-      </c>
-      <c r="F140" t="s">
-        <v>272</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6071,10 +6065,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>272</v>
+      </c>
+      <c r="F141" t="s">
         <v>273</v>
-      </c>
-      <c r="F141" t="s">
-        <v>274</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6100,10 +6094,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>274</v>
+      </c>
+      <c r="F142" t="s">
         <v>275</v>
-      </c>
-      <c r="F142" t="s">
-        <v>276</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6129,10 +6123,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>276</v>
+      </c>
+      <c r="F143" t="s">
         <v>277</v>
-      </c>
-      <c r="F143" t="s">
-        <v>278</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6158,10 +6152,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>278</v>
+      </c>
+      <c r="F144" t="s">
         <v>279</v>
-      </c>
-      <c r="F144" t="s">
-        <v>280</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6187,10 +6181,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>280</v>
+      </c>
+      <c r="F145" t="s">
         <v>281</v>
-      </c>
-      <c r="F145" t="s">
-        <v>282</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6216,10 +6210,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>282</v>
+      </c>
+      <c r="F146" t="s">
         <v>283</v>
-      </c>
-      <c r="F146" t="s">
-        <v>284</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6245,10 +6239,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>284</v>
+      </c>
+      <c r="F147" t="s">
         <v>285</v>
-      </c>
-      <c r="F147" t="s">
-        <v>286</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6274,10 +6268,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>286</v>
+      </c>
+      <c r="F148" t="s">
         <v>287</v>
-      </c>
-      <c r="F148" t="s">
-        <v>288</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6303,10 +6297,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>288</v>
+      </c>
+      <c r="F149" t="s">
         <v>289</v>
-      </c>
-      <c r="F149" t="s">
-        <v>290</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6332,10 +6326,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>290</v>
+      </c>
+      <c r="F150" t="s">
         <v>291</v>
-      </c>
-      <c r="F150" t="s">
-        <v>292</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6361,10 +6355,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>292</v>
+      </c>
+      <c r="F151" t="s">
         <v>293</v>
-      </c>
-      <c r="F151" t="s">
-        <v>294</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6390,10 +6384,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>294</v>
+      </c>
+      <c r="F152" t="s">
         <v>295</v>
-      </c>
-      <c r="F152" t="s">
-        <v>296</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -6419,10 +6413,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>296</v>
+      </c>
+      <c r="F153" t="s">
         <v>297</v>
-      </c>
-      <c r="F153" t="s">
-        <v>298</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6448,10 +6442,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>298</v>
+      </c>
+      <c r="F154" t="s">
         <v>299</v>
-      </c>
-      <c r="F154" t="s">
-        <v>300</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6477,10 +6471,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>300</v>
+      </c>
+      <c r="F155" t="s">
         <v>301</v>
-      </c>
-      <c r="F155" t="s">
-        <v>302</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6506,10 +6500,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>302</v>
+      </c>
+      <c r="F156" t="s">
         <v>303</v>
-      </c>
-      <c r="F156" t="s">
-        <v>304</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6535,10 +6529,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>304</v>
+      </c>
+      <c r="F157" t="s">
         <v>305</v>
-      </c>
-      <c r="F157" t="s">
-        <v>306</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6564,10 +6558,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>306</v>
+      </c>
+      <c r="F158" t="s">
         <v>307</v>
-      </c>
-      <c r="F158" t="s">
-        <v>308</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6593,10 +6587,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F159" t="s">
-        <v>310</v>
+        <v>144</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6622,10 +6616,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F160" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6651,10 +6645,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F161" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6680,10 +6674,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F162" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6709,10 +6703,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F163" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6738,10 +6732,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F164" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6767,10 +6761,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F165" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6796,10 +6790,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F166" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6825,10 +6819,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F167" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6854,10 +6848,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F168" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6883,10 +6877,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F169" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6912,10 +6906,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F170" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6941,10 +6935,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F171" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6970,10 +6964,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F172" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6999,10 +6993,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F173" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7028,10 +7022,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F174" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7057,10 +7051,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F175" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7086,10 +7080,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F176" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7115,10 +7109,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F177" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7144,10 +7138,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F178" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7173,10 +7167,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F179" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7202,10 +7196,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F180" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7231,10 +7225,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F181" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7260,10 +7254,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F182" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -7289,10 +7283,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F183" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -7318,10 +7312,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F184" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7347,10 +7341,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F185" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7376,10 +7370,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F186" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7405,10 +7399,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F187" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7434,10 +7428,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F188" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7463,10 +7457,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F189" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7492,10 +7486,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F190" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7521,10 +7515,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F191" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G191" t="n">
         <v>2</v>
@@ -7550,10 +7544,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F192" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7579,10 +7573,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F193" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G193" t="n">
         <v>9</v>
@@ -7608,10 +7602,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F194" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G194" t="n">
         <v>2</v>
@@ -7637,10 +7631,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F195" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7666,10 +7660,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F196" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7695,10 +7689,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F197" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7724,10 +7718,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F198" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7753,10 +7747,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F199" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7782,10 +7776,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F200" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7811,10 +7805,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F201" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7840,10 +7834,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F202" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7869,10 +7863,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F203" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7898,10 +7892,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F204" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7927,10 +7921,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F205" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7956,10 +7950,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F206" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7985,10 +7979,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F207" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8014,10 +8008,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F208" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8043,10 +8037,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F209" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8072,10 +8066,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F210" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8101,10 +8095,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F211" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8130,10 +8124,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F212" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8159,10 +8153,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F213" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8188,10 +8182,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F214" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8217,10 +8211,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F215" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8246,10 +8240,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F216" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8275,10 +8269,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F217" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8304,10 +8298,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F218" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8333,10 +8327,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F219" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8362,10 +8356,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F220" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8391,10 +8385,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F221" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8420,10 +8414,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F222" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8449,10 +8443,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F223" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8478,10 +8472,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F224" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G224" t="n">
         <v>3</v>
@@ -8507,10 +8501,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F225" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8536,10 +8530,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F226" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8565,10 +8559,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F227" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8594,10 +8588,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F228" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8623,10 +8617,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F229" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8652,10 +8646,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F230" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8681,10 +8675,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F231" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8710,10 +8704,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F232" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8739,10 +8733,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F233" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8768,10 +8762,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F234" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8797,10 +8791,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F235" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8826,10 +8820,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F236" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8855,10 +8849,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F237" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8884,10 +8878,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F238" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8913,10 +8907,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F239" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8942,10 +8936,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F240" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8971,10 +8965,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F241" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9000,10 +8994,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F242" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9029,10 +9023,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F243" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9058,10 +9052,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F244" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9087,10 +9081,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F245" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9116,10 +9110,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F246" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9145,10 +9139,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F247" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9174,10 +9168,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F248" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9203,10 +9197,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F249" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9232,10 +9226,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F250" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9261,10 +9255,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F251" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9290,10 +9284,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F252" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9319,10 +9313,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F253" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9348,10 +9342,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F254" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9377,10 +9371,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F255" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9406,10 +9400,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F256" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9435,10 +9429,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F257" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9464,10 +9458,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F258" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9493,10 +9487,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F259" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9522,10 +9516,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F260" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9551,10 +9545,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F261" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9580,10 +9574,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F262" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9609,10 +9603,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F263" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9638,10 +9632,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F264" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9667,10 +9661,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F265" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9696,10 +9690,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F266" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9725,10 +9719,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F267" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9754,10 +9748,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F268" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -9783,10 +9777,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F269" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -9812,10 +9806,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F270" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -9841,10 +9835,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F271" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -9870,10 +9864,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F272" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -9899,10 +9893,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F273" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -9928,10 +9922,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F274" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -9957,10 +9951,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F275" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G275" t="n">
         <v>3</v>
@@ -9986,10 +9980,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F276" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
